--- a/data/lit/Arnan2017/Arnan2017.xlsx
+++ b/data/lit/Arnan2017/Arnan2017.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsz/Documents/unil/02_traitBiogeo/data/lit/Arnan2017/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsz/Documents/unil/ms_unil/CH_traitBiogeo/data/lit/Arnan2017/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61F42C1-DE1F-5F4F-84BC-B89CF1B6E5C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6894A5EE-9CF1-F64F-9AD5-E8AACEE0CE6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8080" yWindow="0" windowWidth="22740" windowHeight="19000" xr2:uid="{235387F7-8B9B-5049-AA99-2A3C1A23BABB}"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="33580" windowHeight="8320" xr2:uid="{235387F7-8B9B-5049-AA99-2A3C1A23BABB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$155</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="199">
   <si>
     <t>Species</t>
   </si>
@@ -574,6 +577,54 @@
   </si>
   <si>
     <t>revelieri</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>lnCS</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>Diur</t>
+  </si>
+  <si>
+    <t>Dom</t>
+  </si>
+  <si>
+    <t>pS</t>
+  </si>
+  <si>
+    <t>pI</t>
+  </si>
+  <si>
+    <t>pLF</t>
+  </si>
+  <si>
+    <t>FSI</t>
+  </si>
+  <si>
+    <t>FSG</t>
+  </si>
+  <si>
+    <t>FSC</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>nQ</t>
+  </si>
+  <si>
+    <t>nN</t>
+  </si>
+  <si>
+    <t>CFT</t>
   </si>
 </sst>
 </file>
@@ -925,15 +976,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B5F3AF-BFCC-1B4E-88AA-2EA8AA5CA4BF}">
-  <dimension ref="A1:C155"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C155"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2:S155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -943,8 +1003,56 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" t="s">
+        <v>193</v>
+      </c>
+      <c r="N1" t="s">
+        <v>194</v>
+      </c>
+      <c r="O1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R1" t="s">
+        <v>198</v>
+      </c>
+      <c r="S1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -955,8 +1063,57 @@
         <f>CONCATENATE(A2," ",B2)</f>
         <v>Camponotus aethiops</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>7.5</v>
+      </c>
+      <c r="F2">
+        <v>0.67</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.25</v>
+      </c>
+      <c r="K2">
+        <v>0.75</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>7.47</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>ROUND(EXP(O2),0)</f>
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -968,7 +1125,7 @@
         <v>Camponotus amaurus</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -980,7 +1137,7 @@
         <v>Camponotus cruentatus</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -992,7 +1149,7 @@
         <v>Camponotus gestroi</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1003,8 +1160,57 @@
         <f t="shared" si="0"/>
         <v>Camponotus fallax</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>6.9</v>
+      </c>
+      <c r="F6">
+        <v>0.41</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6.21</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f>ROUND(EXP(O6),0)</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +1222,7 @@
         <v>Camponotus figaro</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1028,7 +1234,7 @@
         <v>Camponotus foreli</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1039,8 +1245,57 @@
         <f t="shared" si="0"/>
         <v>Camponotus herculeanus</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>10.8</v>
+      </c>
+      <c r="F9">
+        <v>0.69</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0.25</v>
+      </c>
+      <c r="K9">
+        <v>0.75</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>8.52</v>
+      </c>
+      <c r="P9">
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9:S10" si="1">ROUND(EXP(O9),0)</f>
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1051,8 +1306,57 @@
         <f t="shared" si="0"/>
         <v>Camponotus lateralis</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0.4</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>6.91</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="1"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1064,7 +1368,7 @@
         <v>Camponotus ligniperdus</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1380,7 @@
         <v>Camponotus micans</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1087,8 +1391,57 @@
         <f t="shared" si="0"/>
         <v>Camponotus piceus</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3.9</v>
+      </c>
+      <c r="F13">
+        <v>0.44</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>6.21</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <f>ROUND(EXP(O13),0)</f>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1453,7 @@
         <v>Camponotus pilicornis</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1112,7 +1465,7 @@
         <v>Camponotus sylvaticus</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1476,57 @@
         <f t="shared" si="0"/>
         <v>Camponotus truncatus</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>4.5</v>
+      </c>
+      <c r="F16">
+        <v>0.67</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>5.7</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f t="shared" ref="S16:S17" si="2">ROUND(EXP(O16),0)</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1135,8 +1537,57 @@
         <f t="shared" si="0"/>
         <v>Camponotus vagus</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>9.4</v>
+      </c>
+      <c r="F17">
+        <v>0.68</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0.25</v>
+      </c>
+      <c r="K17">
+        <v>0.75</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>7.82</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1599,7 @@
         <v>Cataglyphis aenescens</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1611,7 @@
         <v>Cataglyphis cursor</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1623,7 @@
         <v>Cataglyphis floricola</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1184,7 +1635,7 @@
         <v>Cataglyphis hispanica</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1647,7 @@
         <v>Cataglyphis iberica</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1208,7 +1659,7 @@
         <v>Cataglyphis rosenhaueri</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1220,7 +1671,7 @@
         <v>Cataglyphis velox</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1232,7 +1683,7 @@
         <v>Formica acquilonia</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1243,8 +1694,57 @@
         <f t="shared" si="0"/>
         <v>Formica cinerea</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>5.3</v>
+      </c>
+      <c r="F26">
+        <v>0.66</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>0.5</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>8.52</v>
+      </c>
+      <c r="P26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>ROUND(EXP(O26),0)</f>
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1256,7 +1756,7 @@
         <v>Formica clara</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1267,8 +1767,57 @@
         <f t="shared" si="0"/>
         <v>Formica cunicularia</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>5.3</v>
+      </c>
+      <c r="F28">
+        <v>0.47</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>7.24</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <f>ROUND(EXP(O28),0)</f>
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1280,7 +1829,7 @@
         <v>Formica decipiens</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1291,8 +1840,57 @@
         <f t="shared" si="0"/>
         <v>Formica fusca</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>0.6</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0.5</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>9.1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ref="S30:S31" si="3">ROUND(EXP(O30),0)</f>
+        <v>8955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1303,8 +1901,57 @@
         <f t="shared" si="0"/>
         <v>Formica gagates</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>0.6</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>6.21</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1316,7 +1963,7 @@
         <v>Formica gerardi</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1327,8 +1974,57 @@
         <f t="shared" si="0"/>
         <v>Formica lemani</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>5.5</v>
+      </c>
+      <c r="F33">
+        <v>0.38</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>7.47</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ref="S33:S35" si="4">ROUND(EXP(O33),0)</f>
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -1339,8 +2035,57 @@
         <f t="shared" si="0"/>
         <v>Formica lugubris</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>6.5</v>
+      </c>
+      <c r="F34">
+        <v>0.77</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>10.6</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>0.5</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>40135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1351,8 +2096,57 @@
         <f t="shared" si="0"/>
         <v>Formica lusatica</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>6.5</v>
+      </c>
+      <c r="F35">
+        <v>0.46</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>8.52</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1364,7 +2158,7 @@
         <v>Formica nigricans</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -1375,8 +2169,57 @@
         <f t="shared" si="0"/>
         <v>Formica polyctena</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>6.5</v>
+      </c>
+      <c r="F37">
+        <v>0.77</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.5</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>13.02</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f t="shared" ref="S37:S41" si="5">ROUND(EXP(O37),0)</f>
+        <v>451351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -1387,8 +2230,57 @@
         <f t="shared" si="0"/>
         <v>Formica pratensis</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>6.5</v>
+      </c>
+      <c r="F38">
+        <v>0.77</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0.5</v>
+      </c>
+      <c r="K38">
+        <v>0.5</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>11</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="5"/>
+        <v>59874</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -1399,8 +2291,57 @@
         <f t="shared" si="0"/>
         <v>Formica rufa</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>6.5</v>
+      </c>
+      <c r="F39">
+        <v>0.77</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0.5</v>
+      </c>
+      <c r="K39">
+        <v>0.5</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="5"/>
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -1411,8 +2352,57 @@
         <f t="shared" si="0"/>
         <v>Formica rufibarbis</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>0.5</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0.5</v>
+      </c>
+      <c r="K40">
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>6.91</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="5"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1423,8 +2413,57 @@
         <f t="shared" si="0"/>
         <v>Formica sanguinea</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>7.5</v>
+      </c>
+      <c r="F41">
+        <v>0.4</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0.5</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P41">
+        <v>0.5</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0.5</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="5"/>
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1436,7 +2475,7 @@
         <v>Formica subrufa</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>28</v>
       </c>
@@ -1448,7 +2487,7 @@
         <v>Formica transkaucasica</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -1459,8 +2498,57 @@
         <f t="shared" si="0"/>
         <v>Formica truncorum</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>6.3</v>
+      </c>
+      <c r="F44">
+        <v>0.87</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0.5</v>
+      </c>
+      <c r="K44">
+        <v>0.5</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" ref="S44:S46" si="6">ROUND(EXP(O44),0)</f>
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -1471,8 +2559,54 @@
         <f t="shared" si="0"/>
         <v>Formica uralensis</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>6.3</v>
+      </c>
+      <c r="F45">
+        <v>0.4</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0.5</v>
+      </c>
+      <c r="K45">
+        <v>0.5</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1483,8 +2617,57 @@
         <f t="shared" si="0"/>
         <v>Lasius alienus</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>2.8</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0.25</v>
+      </c>
+      <c r="K46">
+        <v>0.75</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="6"/>
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1496,7 +2679,7 @@
         <v>Lasius balcanicus</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1507,8 +2690,57 @@
         <f t="shared" si="0"/>
         <v>Lasius brunneus</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>2.9</v>
+      </c>
+      <c r="F48">
+        <v>0.62</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0.25</v>
+      </c>
+      <c r="K48">
+        <v>0.75</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48">
+        <f>ROUND(EXP(O48),0)</f>
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -1520,7 +2752,7 @@
         <v>Lasius cinereus</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1531,8 +2763,57 @@
         <f t="shared" si="0"/>
         <v>Lasius emarginatus</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>3.2</v>
+      </c>
+      <c r="F50">
+        <v>0.47</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0.25</v>
+      </c>
+      <c r="K50">
+        <v>0.75</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <f>ROUND(EXP(O50),0)</f>
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1544,7 +2825,7 @@
         <v>Lasius flvus</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1555,8 +2836,57 @@
         <f t="shared" si="0"/>
         <v>Lasius fuliginosus</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.25</v>
+      </c>
+      <c r="K52">
+        <v>0.75</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>14.73</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>ROUND(EXP(O52),0)</f>
+        <v>2495501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1568,7 +2898,7 @@
         <v>Lasius grandis</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1580,7 +2910,7 @@
         <v>Lasius lasioides</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -1591,8 +2921,57 @@
         <f t="shared" si="0"/>
         <v>Lasius myops</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>2.9</v>
+      </c>
+      <c r="F55">
+        <v>0.79</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>8.52</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <f t="shared" ref="S55:S59" si="7">ROUND(EXP(O55),0)</f>
+        <v>5014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -1603,8 +2982,57 @@
         <f t="shared" si="0"/>
         <v>Lasius niger</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>0.67</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0.25</v>
+      </c>
+      <c r="K56">
+        <v>0.75</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="7"/>
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -1615,8 +3043,57 @@
         <f t="shared" si="0"/>
         <v>Lasius paralienus</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>4.5</v>
+      </c>
+      <c r="F57">
+        <v>0.44</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.25</v>
+      </c>
+      <c r="K57">
+        <v>0.75</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="7"/>
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -1627,8 +3104,57 @@
         <f t="shared" si="0"/>
         <v>Lasius psammophilus</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>3.4</v>
+      </c>
+      <c r="F58">
+        <v>0.59</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.25</v>
+      </c>
+      <c r="K58">
+        <v>0.75</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>10.43</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="7"/>
+        <v>33860</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -1639,8 +3165,57 @@
         <f t="shared" si="0"/>
         <v>Plagiolepis pygmaea</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1.6</v>
+      </c>
+      <c r="F59">
+        <v>0.5</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>6.68</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0.5</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="7"/>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -1652,7 +3227,7 @@
         <v>Plagiolepis schmtzii</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -1664,7 +3239,7 @@
         <v>Proformica ferreri</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -1676,7 +3251,7 @@
         <v>Proformica nasuta</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -1687,8 +3262,57 @@
         <f t="shared" si="0"/>
         <v>Dolichoderus quadripunctatus</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>3.5</v>
+      </c>
+      <c r="F63">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0.5</v>
+      </c>
+      <c r="K63">
+        <v>0.5</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>6.11</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <f>ROUND(EXP(O63),0)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -1700,7 +3324,7 @@
         <v>Linepithema humile</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -1712,7 +3336,7 @@
         <v>Liometopum microcephalum</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -1723,8 +3347,57 @@
         <f t="shared" si="0"/>
         <v>Tapinoma erraticum</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>2.8</v>
+      </c>
+      <c r="F66">
+        <v>0.54</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>8.16</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f>ROUND(EXP(O66),0)</f>
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>76</v>
       </c>
@@ -1732,11 +3405,11 @@
         <v>78</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="1">CONCATENATE(A67," ",B67)</f>
+        <f t="shared" ref="C67:C130" si="8">CONCATENATE(A67," ",B67)</f>
         <v>Tapinoma nigerrimum</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -1744,11 +3417,11 @@
         <v>79</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Tapinoma simrothi</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -1756,11 +3429,11 @@
         <v>81</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Aphaenogaster dulcineae</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -1768,11 +3441,60 @@
         <v>82</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Aphaenogaster gibbosa</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F70">
+        <v>0.41</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0.5</v>
+      </c>
+      <c r="J70">
+        <v>0.5</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>6.48</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <f>ROUND(EXP(O70),0)</f>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>80</v>
       </c>
@@ -1780,11 +3502,11 @@
         <v>25</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Aphaenogaster iberica</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>80</v>
       </c>
@@ -1792,11 +3514,11 @@
         <v>83</v>
       </c>
       <c r="C72" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Aphaenogaster cardenai</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -1804,11 +3526,11 @@
         <v>84</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Aphaenogaster senilis</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -1816,11 +3538,60 @@
         <v>85</v>
       </c>
       <c r="C74" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Aphaenogaster subterranea</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>3.8</v>
+      </c>
+      <c r="F74">
+        <v>0.45</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0.5</v>
+      </c>
+      <c r="J74">
+        <v>0.5</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>7.6</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <f>ROUND(EXP(O74),0)</f>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -1828,11 +3599,11 @@
         <v>87</v>
       </c>
       <c r="C75" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Cardiocondyla batesii</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -1840,11 +3611,11 @@
         <v>88</v>
       </c>
       <c r="C76" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Cardiocondyla mauritanica</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -1852,11 +3623,11 @@
         <v>90</v>
       </c>
       <c r="C77" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Crematogaster auberti</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -1864,11 +3635,60 @@
         <v>91</v>
       </c>
       <c r="C78" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Crematogaster scutellaris</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>4.05</v>
+      </c>
+      <c r="F78">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.5</v>
+      </c>
+      <c r="K78">
+        <v>0.5</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>6.62</v>
+      </c>
+      <c r="P78">
+        <v>0.5</v>
+      </c>
+      <c r="Q78">
+        <v>0.5</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <f t="shared" ref="S78:S79" si="9">ROUND(EXP(O78),0)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -1876,11 +3696,60 @@
         <v>92</v>
       </c>
       <c r="C79" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Crematogaster sordidula</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F79">
+        <v>0.37</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>6.62</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -1888,11 +3757,11 @@
         <v>94</v>
       </c>
       <c r="C80" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Goniomma baeticum</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -1900,11 +3769,11 @@
         <v>95</v>
       </c>
       <c r="C81" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Goniomma blanci</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -1912,11 +3781,11 @@
         <v>96</v>
       </c>
       <c r="C82" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Goniomma collingwoodi</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -1924,11 +3793,11 @@
         <v>97</v>
       </c>
       <c r="C83" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Goniomma hispanicum</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>93</v>
       </c>
@@ -1936,11 +3805,11 @@
         <v>98</v>
       </c>
       <c r="C84" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Goniomma kugleri</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -1948,11 +3817,11 @@
         <v>99</v>
       </c>
       <c r="C85" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Goniomma thoracicum</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>100</v>
       </c>
@@ -1960,11 +3829,60 @@
         <v>101</v>
       </c>
       <c r="C86" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Leptothorax acervorum</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>3.6</v>
+      </c>
+      <c r="F86">
+        <v>0.17</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0.5</v>
+      </c>
+      <c r="K86">
+        <v>0.5</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>7.6</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <f t="shared" ref="S86:S89" si="10">ROUND(EXP(O86),0)</f>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -1972,11 +3890,60 @@
         <v>102</v>
       </c>
       <c r="C87" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Leptothorax gredleri</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>3.2</v>
+      </c>
+      <c r="F87">
+        <v>0.16</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0.5</v>
+      </c>
+      <c r="K87">
+        <v>0.5</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>3.91</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0.5</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -1984,11 +3951,60 @@
         <v>103</v>
       </c>
       <c r="C88" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Leptothorax muscorum</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>2.9</v>
+      </c>
+      <c r="F88">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0.5</v>
+      </c>
+      <c r="K88">
+        <v>0.5</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>5.7</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="10"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -1996,11 +4012,60 @@
         <v>105</v>
       </c>
       <c r="C89" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Manica rubida</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>7</v>
+      </c>
+      <c r="F89">
+        <v>0.71</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>8.16</v>
+      </c>
+      <c r="P89">
+        <v>0.5</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>1</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="10"/>
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>106</v>
       </c>
@@ -2008,11 +4073,11 @@
         <v>107</v>
       </c>
       <c r="C90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Messor barbarus</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -2020,11 +4085,11 @@
         <v>108</v>
       </c>
       <c r="C91" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Messor celiae</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>106</v>
       </c>
@@ -2032,11 +4097,11 @@
         <v>109</v>
       </c>
       <c r="C92" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Messor bouvieri</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -2044,11 +4109,11 @@
         <v>110</v>
       </c>
       <c r="C93" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Messor maroccans</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -2056,11 +4121,11 @@
         <v>111</v>
       </c>
       <c r="C94" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Messor capitatus</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -2068,11 +4133,11 @@
         <v>112</v>
       </c>
       <c r="C95" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Messor hispanicus</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -2080,11 +4145,11 @@
         <v>113</v>
       </c>
       <c r="C96" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Messor lusitanicus</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -2092,11 +4157,60 @@
         <v>114</v>
       </c>
       <c r="C97" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Messor structor</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>6.8</v>
+      </c>
+      <c r="F97">
+        <v>0.81</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <f>ROUND(EXP(O97),0)</f>
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>115</v>
       </c>
@@ -2104,11 +4218,11 @@
         <v>116</v>
       </c>
       <c r="C98" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Monomorium salomonis</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -2116,11 +4230,60 @@
         <v>117</v>
       </c>
       <c r="C99" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmecina graminicola</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>3.05</v>
+      </c>
+      <c r="F99">
+        <v>0.36</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0.75</v>
+      </c>
+      <c r="K99">
+        <v>0.25</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="P99">
+        <v>0.5</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <f>ROUND(EXP(O99),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -2128,11 +4291,11 @@
         <v>120</v>
       </c>
       <c r="C100" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica aloba</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -2140,11 +4303,54 @@
         <v>121</v>
       </c>
       <c r="C101" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica hellenica</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0.5</v>
+      </c>
+      <c r="K101">
+        <v>0.5</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>1</v>
+      </c>
+      <c r="O101">
+        <v>7.38</v>
+      </c>
+      <c r="P101">
+        <v>0.5</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0.5</v>
+      </c>
+      <c r="S101">
+        <f t="shared" ref="S101:S110" si="11">ROUND(EXP(O101),0)</f>
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -2152,11 +4358,60 @@
         <v>122</v>
       </c>
       <c r="C102" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica lobulicornis</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>3.75</v>
+      </c>
+      <c r="F102">
+        <v>0.27</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0.5</v>
+      </c>
+      <c r="K102">
+        <v>0.5</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
+        <v>7.31</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0.5</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="11"/>
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -2164,11 +4419,60 @@
         <v>123</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica lonae</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F103">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0.5</v>
+      </c>
+      <c r="K103">
+        <v>0.5</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103">
+        <v>8.01</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0.5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="11"/>
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -2176,11 +4480,57 @@
         <v>124</v>
       </c>
       <c r="C104" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica rubra</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>0.25</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0.5</v>
+      </c>
+      <c r="K104">
+        <v>0.5</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>8.01</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
+        <v>0.5</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="11"/>
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>119</v>
       </c>
@@ -2188,11 +4538,60 @@
         <v>125</v>
       </c>
       <c r="C105" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica ruginodis</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>4.75</v>
+      </c>
+      <c r="F105">
+        <v>0.11</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0.5</v>
+      </c>
+      <c r="K105">
+        <v>0.5</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105">
+        <v>7.6</v>
+      </c>
+      <c r="P105">
+        <v>0.5</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0.5</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="11"/>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -2200,11 +4599,60 @@
         <v>126</v>
       </c>
       <c r="C106" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica rugulosa</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>0.25</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0.5</v>
+      </c>
+      <c r="K106">
+        <v>0.5</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>7.6</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>1</v>
+      </c>
+      <c r="R106">
+        <v>0.5</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="11"/>
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -2212,11 +4660,60 @@
         <v>127</v>
       </c>
       <c r="C107" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica sabuleti</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F107">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0.5</v>
+      </c>
+      <c r="K107">
+        <v>0.5</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>1</v>
+      </c>
+      <c r="O107">
+        <v>8.01</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>0.5</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="11"/>
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -2224,11 +4721,60 @@
         <v>128</v>
       </c>
       <c r="C108" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica scabrinodis</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>4.25</v>
+      </c>
+      <c r="F108">
+        <v>0.24</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0.5</v>
+      </c>
+      <c r="K108">
+        <v>0.5</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>7.31</v>
+      </c>
+      <c r="P108">
+        <v>0.5</v>
+      </c>
+      <c r="Q108">
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <v>0.5</v>
+      </c>
+      <c r="S108">
+        <f t="shared" si="11"/>
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -2236,11 +4782,60 @@
         <v>129</v>
       </c>
       <c r="C109" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica schencki</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F109">
+        <v>0.51</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0.5</v>
+      </c>
+      <c r="K109">
+        <v>0.5</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1</v>
+      </c>
+      <c r="O109">
+        <v>6.91</v>
+      </c>
+      <c r="P109">
+        <v>0.5</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>0.5</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="11"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>119</v>
       </c>
@@ -2248,11 +4843,60 @@
         <v>130</v>
       </c>
       <c r="C110" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica specioides</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>5.6</v>
+      </c>
+      <c r="F110">
+        <v>0.18</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0.5</v>
+      </c>
+      <c r="K110">
+        <v>0.5</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110">
+        <v>7.31</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <v>0.5</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="11"/>
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -2260,11 +4904,11 @@
         <v>131</v>
       </c>
       <c r="C111" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica spinosior</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>119</v>
       </c>
@@ -2272,11 +4916,60 @@
         <v>132</v>
       </c>
       <c r="C112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica sulcinodis</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>4.75</v>
+      </c>
+      <c r="F112">
+        <v>0.32</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0.5</v>
+      </c>
+      <c r="K112">
+        <v>0.5</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>6.68</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>0.5</v>
+      </c>
+      <c r="R112">
+        <v>0.5</v>
+      </c>
+      <c r="S112">
+        <f>ROUND(EXP(O112),0)</f>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -2284,11 +4977,11 @@
         <v>133</v>
       </c>
       <c r="C113" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Myrmica wesmaeli</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>134</v>
       </c>
@@ -2296,11 +4989,11 @@
         <v>135</v>
       </c>
       <c r="C114" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Oxyopomyrmex saulcyi</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>136</v>
       </c>
@@ -2308,11 +5001,11 @@
         <v>137</v>
       </c>
       <c r="C115" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Pheidole palidula</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -2320,11 +5013,11 @@
         <v>139</v>
       </c>
       <c r="C116" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Stenamma orousetti</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -2332,11 +5025,11 @@
         <v>140</v>
       </c>
       <c r="C117" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Stenamma westwoodi</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>138</v>
       </c>
@@ -2344,11 +5037,60 @@
         <v>141</v>
       </c>
       <c r="C118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Stenamma petiolatum</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>4.5</v>
+      </c>
+      <c r="F118">
+        <v>0.13</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>1</v>
+      </c>
+      <c r="S118">
+        <f>ROUND(EXP(O118),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -2356,11 +5098,11 @@
         <v>143</v>
       </c>
       <c r="C119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax angustulus</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -2368,11 +5110,11 @@
         <v>144</v>
       </c>
       <c r="C120" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax caesari</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -2380,11 +5122,11 @@
         <v>145</v>
       </c>
       <c r="C121" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax clypeatus</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>142</v>
       </c>
@@ -2392,11 +5134,11 @@
         <v>146</v>
       </c>
       <c r="C122" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax crassispinus</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -2404,11 +5146,11 @@
         <v>147</v>
       </c>
       <c r="C123" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax exilis</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -2416,11 +5158,11 @@
         <v>148</v>
       </c>
       <c r="C124" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax fuentei</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -2428,11 +5170,11 @@
         <v>149</v>
       </c>
       <c r="C125" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax gredosi</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -2440,11 +5182,11 @@
         <v>150</v>
       </c>
       <c r="C126" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax grouvellei</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -2452,11 +5194,60 @@
         <v>151</v>
       </c>
       <c r="C127" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax interruptus</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F127">
+        <v>0.52</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0.5</v>
+      </c>
+      <c r="K127">
+        <v>0.5</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>5.01</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <f>ROUND(EXP(O127),0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -2464,11 +5255,11 @@
         <v>152</v>
       </c>
       <c r="C128" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax kraussei</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -2476,11 +5267,11 @@
         <v>153</v>
       </c>
       <c r="C129" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax lichtensteini</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -2488,11 +5279,57 @@
         <v>154</v>
       </c>
       <c r="C130" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>Temnothorax luteus</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>2.4</v>
+      </c>
+      <c r="F130">
+        <v>0.25</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0.5</v>
+      </c>
+      <c r="K130">
+        <v>0.5</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>1</v>
+      </c>
+      <c r="S130">
+        <f>ROUND(EXP(O130),0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -2500,11 +5337,11 @@
         <v>61</v>
       </c>
       <c r="C131" t="str">
-        <f t="shared" ref="C131:C155" si="2">CONCATENATE(A131," ",B131)</f>
+        <f t="shared" ref="C131:C155" si="12">CONCATENATE(A131," ",B131)</f>
         <v>Temnothorax niger</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>142</v>
       </c>
@@ -2512,11 +5349,60 @@
         <v>155</v>
       </c>
       <c r="C132" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax nigriceps</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132">
+        <v>2.65</v>
+      </c>
+      <c r="F132">
+        <v>0.26</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0.5</v>
+      </c>
+      <c r="K132">
+        <v>0.5</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>5.01</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <v>1</v>
+      </c>
+      <c r="S132">
+        <f t="shared" ref="S132:S133" si="13">ROUND(EXP(O132),0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>142</v>
       </c>
@@ -2524,11 +5410,60 @@
         <v>156</v>
       </c>
       <c r="C133" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax nylanderi</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>2.65</v>
+      </c>
+      <c r="F133">
+        <v>0.3</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0.5</v>
+      </c>
+      <c r="K133">
+        <v>0.5</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>5.7</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133">
+        <f t="shared" si="13"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>142</v>
       </c>
@@ -2536,11 +5471,11 @@
         <v>157</v>
       </c>
       <c r="C134" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax pardoi</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>142</v>
       </c>
@@ -2548,11 +5483,60 @@
         <v>158</v>
       </c>
       <c r="C135" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax parvulus</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F135">
+        <v>0.12</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0.5</v>
+      </c>
+      <c r="K135">
+        <v>0.5</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>6.4</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>1</v>
+      </c>
+      <c r="S135">
+        <f>ROUND(EXP(O135),0)</f>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -2560,11 +5544,11 @@
         <v>159</v>
       </c>
       <c r="C136" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax rabaudi</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>142</v>
       </c>
@@ -2572,11 +5556,60 @@
         <v>160</v>
       </c>
       <c r="C137" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax racovitzai</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F137">
+        <v>0.12</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0.5</v>
+      </c>
+      <c r="K137">
+        <v>0.5</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>5.01</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>1</v>
+      </c>
+      <c r="S137">
+        <f t="shared" ref="S137:S138" si="14">ROUND(EXP(O137),0)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>142</v>
       </c>
@@ -2584,11 +5617,60 @@
         <v>161</v>
       </c>
       <c r="C138" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax recedens</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>2.7</v>
+      </c>
+      <c r="F138">
+        <v>0.3</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0.5</v>
+      </c>
+      <c r="K138">
+        <v>0.5</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>5.01</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>0</v>
+      </c>
+      <c r="S138">
+        <f t="shared" si="14"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -2596,11 +5678,11 @@
         <v>162</v>
       </c>
       <c r="C139" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax specularis</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -2608,11 +5690,11 @@
         <v>163</v>
       </c>
       <c r="C140" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax tristis</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>142</v>
       </c>
@@ -2620,11 +5702,60 @@
         <v>164</v>
       </c>
       <c r="C141" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax tuberum</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141">
+        <v>2.85</v>
+      </c>
+      <c r="F141">
+        <v>0.39</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0.5</v>
+      </c>
+      <c r="K141">
+        <v>0.5</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>5.3</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0.5</v>
+      </c>
+      <c r="R141">
+        <v>1</v>
+      </c>
+      <c r="S141">
+        <f>ROUND(EXP(O141),0)</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>142</v>
       </c>
@@ -2632,11 +5763,11 @@
         <v>165</v>
       </c>
       <c r="C142" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax thyndalei</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -2644,11 +5775,60 @@
         <v>166</v>
       </c>
       <c r="C143" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Temnothorax unifasciatus</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143">
+        <v>2.5</v>
+      </c>
+      <c r="F143">
+        <v>0.4</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0.5</v>
+      </c>
+      <c r="K143">
+        <v>0.5</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>5.78</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
+        <v>0</v>
+      </c>
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="S143">
+        <f t="shared" ref="S143:S145" si="15">ROUND(EXP(O143),0)</f>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -2656,11 +5836,60 @@
         <v>168</v>
       </c>
       <c r="C144" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Tetramorium caespitum</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>2.9</v>
+      </c>
+      <c r="F144">
+        <v>0.41</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>0.25</v>
+      </c>
+      <c r="J144">
+        <v>0.75</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="15"/>
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>167</v>
       </c>
@@ -2668,11 +5897,60 @@
         <v>169</v>
       </c>
       <c r="C145" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Tetramorium impurum</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145">
+        <v>2.9</v>
+      </c>
+      <c r="F145">
+        <v>0.41</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>0.25</v>
+      </c>
+      <c r="J145">
+        <v>0.75</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="15"/>
+        <v>9997</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>167</v>
       </c>
@@ -2680,11 +5958,11 @@
         <v>170</v>
       </c>
       <c r="C146" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Tetramorium forte</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>167</v>
       </c>
@@ -2692,11 +5970,11 @@
         <v>97</v>
       </c>
       <c r="C147" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Tetramorium hispanicum</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -2704,11 +5982,11 @@
         <v>171</v>
       </c>
       <c r="C148" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Tetramorium ruginode</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>167</v>
       </c>
@@ -2716,11 +5994,11 @@
         <v>172</v>
       </c>
       <c r="C149" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Tetramorium semilaeve</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -2728,11 +6006,11 @@
         <v>173</v>
       </c>
       <c r="C150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Tetramorium punicum</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>174</v>
       </c>
@@ -2740,11 +6018,60 @@
         <v>175</v>
       </c>
       <c r="C151" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Hypoponera eduardi</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151">
+        <v>2.85</v>
+      </c>
+      <c r="F151">
+        <v>0.18</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>7.31</v>
+      </c>
+      <c r="P151">
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>1</v>
+      </c>
+      <c r="S151">
+        <f>ROUND(EXP(O151),0)</f>
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>174</v>
       </c>
@@ -2752,11 +6079,11 @@
         <v>176</v>
       </c>
       <c r="C152" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Hypoponera puncatissima</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>177</v>
       </c>
@@ -2764,11 +6091,60 @@
         <v>178</v>
       </c>
       <c r="C153" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Ponera coarctata</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153">
+        <v>2.95</v>
+      </c>
+      <c r="F153">
+        <v>0.31</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="P153">
+        <v>1</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <f>ROUND(EXP(O153),0)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>179</v>
       </c>
@@ -2776,11 +6152,11 @@
         <v>180</v>
       </c>
       <c r="C154" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Tetraponera allaborans</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>181</v>
       </c>
@@ -2788,11 +6164,18 @@
         <v>182</v>
       </c>
       <c r="C155" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>Leptanilla revelieri</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D155" xr:uid="{9A4AA52E-FD88-0348-9844-E93AA497150C}">
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>